--- a/exploit_app/import_scripts/Progs.xlsx
+++ b/exploit_app/import_scripts/Progs.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan Uni\Documents\github\hackz\exploit_app\import_scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\git\hackz\exploit_app\import_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851A4BCC-7530-4441-B557-8F9558E1B7FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F725FF-03E4-47E6-9C09-ED3F74EF4F36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6108" yWindow="696" windowWidth="17280" windowHeight="8964" xr2:uid="{DF68AA41-7AE1-473A-9A81-ECEE7181D9AD}"/>
+    <workbookView xWindow="-19200" yWindow="2064" windowWidth="19416" windowHeight="10416" xr2:uid="{DF68AA41-7AE1-473A-9A81-ECEE7181D9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="94">
   <si>
     <t>Name</t>
   </si>
@@ -681,15 +682,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F2C2AA-282A-496D-A008-3B002AF84362}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -702,28 +703,22 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>140</v>
+      </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>141</v>
+      </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -733,11 +728,11 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>142</v>
+      </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -747,11 +742,11 @@
       <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>143</v>
+      </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -762,7 +757,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>144</v>
+      </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -770,7 +768,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>145</v>
+      </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -778,7 +779,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>146</v>
+      </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -786,22 +790,34 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>147</v>
+      </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>148</v>
+      </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>149</v>
+      </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>150</v>
+      </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -809,7 +825,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>151</v>
+      </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -817,18 +836,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>152</v>
+      </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>153</v>
+      </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
@@ -836,18 +858,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>154</v>
+      </c>
       <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>155</v>
+      </c>
       <c r="B17" t="s">
         <v>37</v>
       </c>
@@ -858,7 +880,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>156</v>
+      </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -866,7 +891,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>157</v>
+      </c>
       <c r="B19" t="s">
         <v>42</v>
       </c>
@@ -874,7 +902,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>158</v>
+      </c>
       <c r="B20" t="s">
         <v>44</v>
       </c>
@@ -882,58 +913,58 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>159</v>
+      </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>160</v>
+      </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
-      <c r="E22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>161</v>
+      </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="E23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>162</v>
+      </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="E24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>163</v>
+      </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
-      <c r="E25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>164</v>
+      </c>
       <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>165</v>
+      </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
@@ -941,31 +972,37 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>166</v>
+      </c>
       <c r="B28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>167</v>
+      </c>
       <c r="B29" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>168</v>
+      </c>
       <c r="B30" t="s">
         <v>65</v>
       </c>
       <c r="C30" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>169</v>
+      </c>
       <c r="B31" t="s">
         <v>68</v>
       </c>
@@ -973,7 +1010,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>170</v>
+      </c>
       <c r="B32" t="s">
         <v>70</v>
       </c>
@@ -981,7 +1021,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>171</v>
+      </c>
       <c r="B33" t="s">
         <v>72</v>
       </c>
@@ -989,15 +1032,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>172</v>
+      </c>
       <c r="B34" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>173</v>
+      </c>
       <c r="B35" t="s">
         <v>76</v>
       </c>
@@ -1005,7 +1051,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>174</v>
+      </c>
       <c r="B36" t="s">
         <v>78</v>
       </c>
@@ -1013,7 +1062,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>175</v>
+      </c>
       <c r="B37" t="s">
         <v>80</v>
       </c>
@@ -1021,7 +1073,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>176</v>
+      </c>
       <c r="B38" t="s">
         <v>82</v>
       </c>
@@ -1029,7 +1084,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>177</v>
+      </c>
       <c r="B39" t="s">
         <v>84</v>
       </c>
@@ -1037,37 +1095,58 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>178</v>
+      </c>
       <c r="B40" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>179</v>
+      </c>
       <c r="B41" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>180</v>
+      </c>
       <c r="B42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>181</v>
+      </c>
       <c r="B43" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>182</v>
+      </c>
       <c r="B44" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>183</v>
+      </c>
       <c r="B45" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>184</v>
+      </c>
       <c r="B46" t="s">
         <v>92</v>
       </c>
@@ -1076,17 +1155,319 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9F3DD9-5F92-4FE7-A72E-C4F8CFD5C35E}">
+  <dimension ref="A1:C46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>140</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>141</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>142</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>152</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>154</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>159</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>160</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>162</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>163</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>164</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>167</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>168</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>172</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{E08C9657-6BA4-41D2-9C85-0CD42F1ABA77}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{874CA2ED-619D-4061-AF0C-F2B01642A532}"/>
-    <hyperlink ref="F4" r:id="rId3" display="http://10.10.10.10:5000/" xr:uid="{04D9780A-BC46-4DC9-B385-7B5234129E0F}"/>
-    <hyperlink ref="E14" r:id="rId4" xr:uid="{D23FA511-B083-4098-AA52-0853EA3CE00B}"/>
-    <hyperlink ref="E26" r:id="rId5" xr:uid="{1E418137-370C-44D9-8F1A-8868D6573AD6}"/>
-    <hyperlink ref="E29" r:id="rId6" xr:uid="{2178FE2B-D4BF-480D-AC60-5B462CE32256}"/>
-    <hyperlink ref="E30" r:id="rId7" xr:uid="{E54A38DA-A3AF-4088-8C30-3265378E4119}"/>
-    <hyperlink ref="E34" r:id="rId8" xr:uid="{49F2EA35-786E-48C0-AC68-B2BFFD4C5618}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D90A3CDB-2A53-430F-8455-CBA8BCFA5EBC}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{81DF1ACC-A6A4-4B0F-9B7F-84161B9478F2}"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://10.10.10.10:5000/" xr:uid="{4B1ECA11-3364-4FE4-88A1-88C384F8E2A7}"/>
+    <hyperlink ref="B14" r:id="rId4" xr:uid="{0C162E00-C2C1-4869-B194-822B126BD028}"/>
+    <hyperlink ref="B26" r:id="rId5" xr:uid="{C6CB2001-72D1-4267-8CAE-E94A68FC15FC}"/>
+    <hyperlink ref="B29" r:id="rId6" xr:uid="{30392BEB-2264-4F3F-B51D-AB3EFFB80619}"/>
+    <hyperlink ref="B30" r:id="rId7" xr:uid="{E70D5258-C44E-433E-AE86-A9E8863B2557}"/>
+    <hyperlink ref="B34" r:id="rId8" xr:uid="{DD2DCAFB-DD3E-4E5F-941D-D1B1962A5D3C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>